--- a/KUPT6AB2.xlsx
+++ b/KUPT6AB2.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>samedi</t>
+    <t>mercredi</t>
   </si>
   <si>
     <t>CPO-PJ (KUPT6AB2) /PJ</t>
@@ -35,10 +35,10 @@
     <t>TYPE_AUTRE</t>
   </si>
   <si>
-    <t>dimanche</t>
-  </si>
-  <si>
-    <t>vendredi</t>
+    <t>jeudi</t>
+  </si>
+  <si>
+    <t>mardi</t>
   </si>
   <si>
     <t>13:30</t>
@@ -107,7 +107,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>45017.0</v>
+        <v>46113.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -146,7 +146,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>45025.0</v>
+        <v>46121.0</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>7</v>
@@ -185,7 +185,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n" s="1">
-        <v>45030.0</v>
+        <v>46126.0</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>8</v>
@@ -216,7 +216,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n" s="1">
-        <v>45031.0</v>
+        <v>46127.0</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>1</v>
@@ -247,7 +247,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n" s="1">
-        <v>45032.0</v>
+        <v>46128.0</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>7</v>
